--- a/sortedmasterchem.xlsx
+++ b/sortedmasterchem.xlsx
@@ -73,13 +73,13 @@
     <t>Koopa Troopa</t>
   </si>
   <si>
-    <t>['Green Mii Female', 'Blue Dry Bones', 'Green Mii Male', 'Bowser Jr.', 'Koopa Paratroopa', 'Dark Bones', 'Bowser', 'Green Dry Bones', 'Dry Bones', 'Red Koopa Paratroopa', 'Goomba']</t>
+    <t>['Green Mii Female', 'Blue Dry Bones', 'Green Mii Male', 'Bowser Jr', 'Koopa Paratroopa', 'Dark Bones', 'Bowser', 'Green Dry Bones', 'Dry Bones', 'Red Koopa Paratroopa', 'Goomba']</t>
   </si>
   <si>
     <t>Red Koopa Troopa</t>
   </si>
   <si>
-    <t>['Blue Dry Bones', 'Red Mii Female', 'Bowser Jr.', 'Red Mii Male', 'Koopa Paratroopa', 'Dark Bones', 'Bowser', 'Green Dry Bones', 'Dry Bones', 'Red Koopa Paratroopa', 'Goomba']</t>
+    <t>['Blue Dry Bones', 'Red Mii Female', 'Bowser Jr', 'Red Mii Male', 'Koopa Paratroopa', 'Dark Bones', 'Bowser', 'Green Dry Bones', 'Dry Bones', 'Red Koopa Paratroopa', 'Goomba']</t>
   </si>
   <si>
     <t>Birdo</t>
@@ -277,7 +277,7 @@
     <t>Hammer Bro</t>
   </si>
   <si>
-    <t>['Green Mii Female', 'Green Mii Male', 'Bowser Jr.', 'Green Magikoopa', 'Bowser', 'Magikoopa', 'Red Magikoopa', 'Yellow Magikoopa']</t>
+    <t>['Green Mii Female', 'Green Mii Male', 'Bowser Jr', 'Green Magikoopa', 'Bowser', 'Magikoopa', 'Red Magikoopa', 'Yellow Magikoopa']</t>
   </si>
   <si>
     <t>['Green Noki', 'Red Noki', 'Noki', 'Daisy']</t>
@@ -304,19 +304,19 @@
     <t>Fire Bro</t>
   </si>
   <si>
-    <t>['Red Mii Female', 'Bowser Jr.', 'Red Mii Male', 'Green Magikoopa', 'Bowser', 'Magikoopa', 'Red Magikoopa', 'Yellow Magikoopa']</t>
+    <t>['Red Mii Female', 'Bowser Jr', 'Red Mii Male', 'Green Magikoopa', 'Bowser', 'Magikoopa', 'Red Magikoopa', 'Yellow Magikoopa']</t>
   </si>
   <si>
     <t>Black Mii Male</t>
   </si>
   <si>
-    <t>['Black Mii Female', 'Bowser Jr.', 'Bowser', 'Black Shy Guy']</t>
+    <t>['Black Mii Female', 'Bowser Jr', 'Bowser', 'Black Shy Guy']</t>
   </si>
   <si>
     <t>Boomerang Bro</t>
   </si>
   <si>
-    <t>['Bowser Jr.', 'Blue Mii Male', 'Green Magikoopa', 'Bowser', 'Magikoopa', 'Red Magikoopa', 'Blue Mii Female', 'Yellow Magikoopa']</t>
+    <t>['Bowser Jr', 'Blue Mii Male', 'Green Magikoopa', 'Bowser', 'Magikoopa', 'Red Magikoopa', 'Blue Mii Female', 'Yellow Magikoopa']</t>
   </si>
   <si>
     <t>Light Blue Mii Female</t>
@@ -334,7 +334,7 @@
     <t>Black Mii Female</t>
   </si>
   <si>
-    <t>['Bowser Jr.', 'Bowser', 'Black Shy Guy', 'Black Mii Male']</t>
+    <t>['Bowser Jr', 'Bowser', 'Black Shy Guy', 'Black Mii Male']</t>
   </si>
   <si>
     <t>Purple Mii Male</t>
@@ -412,7 +412,7 @@
     <t>Bowser</t>
   </si>
   <si>
-    <t>['Red Koopa Troopa', 'Fire Bro', 'Hammer Bro', 'Black Mii Female', 'Blue Dry Bones', 'Boomerang Bro', 'Bowser Jr.', 'Black Mii Male', 'Koopa Paratroopa', 'Green Magikoopa', 'Dark Bones', 'Magikoopa', 'Red Magikoopa', 'Green Dry Bones', 'Dry Bones', 'Red Koopa Paratroopa', 'Yellow Magikoopa', 'Koopa Troopa']</t>
+    <t>['Red Koopa Troopa', 'Fire Bro', 'Hammer Bro', 'Black Mii Female', 'Blue Dry Bones', 'Boomerang Bro', 'Bowser Jr', 'Black Mii Male', 'Koopa Paratroopa', 'Green Magikoopa', 'Dark Bones', 'Magikoopa', 'Red Magikoopa', 'Green Dry Bones', 'Dry Bones', 'Red Koopa Paratroopa', 'Yellow Magikoopa', 'Koopa Troopa']</t>
   </si>
   <si>
     <t>['Baby DK', 'Green Toad', 'Purple Toad', 'Baby Daisy ', 'Baby Mario', 'Toadette', 'Mario', 'Blue Toad', 'Luigi', 'Peach', 'King K Rool', 'Baby Luigi', 'Yellow Toad', 'Toad', 'Toadsworth', 'Baby Peach']</t>
@@ -1106,8 +1106,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="254.71928571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
